--- a/projects/m0_office.xlsx
+++ b/projects/m0_office.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="780" windowWidth="14880" windowHeight="7365" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="2880" windowWidth="21204" windowHeight="2892" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$100</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="906">
   <si>
     <t>type</t>
   </si>
@@ -1903,9 +1903,6 @@
     <t>double</t>
   </si>
   <si>
-    <t>0.3.0</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -2050,9 +2047,6 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>NationalGrid Model0</t>
-  </si>
-  <si>
     <t>../analysis</t>
   </si>
   <si>
@@ -2206,9 +2200,6 @@
     <t>standard_reports.total_building_area</t>
   </si>
   <si>
-    <t>../../../GitHub/cofee-measures/model0</t>
-  </si>
-  <si>
     <t>GatherSpaceTypeRatioData</t>
   </si>
   <si>
@@ -2263,9 +2254,6 @@
     <t>USA_MA_Boston-Logan.Intl.AP.725090_TMY3.epw</t>
   </si>
   <si>
-    <t>../../../GitHub/cofee-measures/lib/</t>
-  </si>
-  <si>
     <t>cofee</t>
   </si>
   <si>
@@ -2738,13 +2726,46 @@
   </si>
   <si>
     <t>Office IT_Room</t>
+  </si>
+  <si>
+    <t>0.3.7</t>
+  </si>
+  <si>
+    <t>NationalGrid office Model0</t>
+  </si>
+  <si>
+    <t>Parameter Short Display Name</t>
+  </si>
+  <si>
+    <t>Short Display Name</t>
+  </si>
+  <si>
+    <t>Short display names are used for plots and exported to metadata</t>
+  </si>
+  <si>
+    <t>Site EUI</t>
+  </si>
+  <si>
+    <t>Source EUI</t>
+  </si>
+  <si>
+    <t>NG EUI</t>
+  </si>
+  <si>
+    <t>Elec EUI</t>
+  </si>
+  <si>
+    <t>../../cofee-measures/model0</t>
+  </si>
+  <si>
+    <t>../../cofee-measures/lib/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2818,6 +2839,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4701,7 +4736,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4797,6 +4832,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6907,9 +6949,9 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.85546875" customWidth="1"/>
+    <col min="1" max="1" width="81.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
@@ -6937,21 +6979,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6960,7 +7002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6969,12 +7011,12 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>620</v>
+        <v>895</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>437</v>
@@ -6985,7 +7027,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
@@ -6996,13 +7038,13 @@
         <v>469</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -7013,7 +7055,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -7032,7 +7074,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7051,7 +7093,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -7064,7 +7106,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7073,40 +7115,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>669</v>
+        <v>896</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>721</v>
+        <v>904</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -7117,7 +7159,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7128,7 +7170,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -7139,7 +7181,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -7150,7 +7192,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7163,19 +7205,19 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7192,72 +7234,72 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="C24" s="33"/>
       <c r="D24" s="34"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="C25" s="33"/>
       <c r="D25" s="34"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="C26" s="33"/>
       <c r="D26" s="34"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="33"/>
       <c r="D27" s="34"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
       <c r="C28" s="33"/>
       <c r="D28" s="34"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="26"/>
       <c r="C29" s="33"/>
       <c r="D29" s="34"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
       <c r="C30" s="33"/>
       <c r="D30" s="34"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="33"/>
       <c r="D31" s="34"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="33"/>
       <c r="D32" s="34"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="33"/>
       <c r="D33" s="34"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="33"/>
       <c r="D34" s="34"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7265,15 +7307,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7284,27 +7326,27 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7312,25 +7354,25 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7358,39 +7400,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y171"/>
+  <dimension ref="A1:Z171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
+    <col min="14" max="15" width="7.88671875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="31"/>
+    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
+    <col min="18" max="18" width="23" style="31" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
+    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="31"/>
+    <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7400,32 +7442,33 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="5"/>
+      <c r="U1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+    </row>
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7438,10 +7481,11 @@
       <c r="D2" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="F2" s="49"/>
       <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7457,1756 +7501,1795 @@
       <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="50" t="s">
+        <v>897</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="X3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="Y3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>658</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>659</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="38"/>
       <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>665</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="G5" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>666</v>
       </c>
-      <c r="F5" s="30" t="s">
+    </row>
+    <row r="6" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="31" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F8" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H8" s="31" t="s">
-        <v>869</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="31" t="s">
+        <v>865</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O8" s="3"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F9" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>0.44</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M9" s="3"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H10" s="31" t="b">
+        <v>723</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I10" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F11" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="38"/>
       <c r="H12" s="38"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F13" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>888</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="31" t="s">
+        <v>884</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O13" s="3"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F14" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H15" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I15" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F16" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E17" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="38"/>
       <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F18" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>889</v>
-      </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="31" t="s">
+        <v>885</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O18" s="3"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F19" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.12</v>
       </c>
-      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M19" s="3"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H20" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="31"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I20" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F21" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E22" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="38"/>
       <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F23" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>890</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="31" t="s">
+        <v>886</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O23" s="3"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F24" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>0.08</v>
       </c>
-      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M24" s="3"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H25" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I25" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F26" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E27" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="38"/>
       <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I27" s="38"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F28" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H28" s="31" t="s">
-        <v>891</v>
-      </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="31" t="s">
+        <v>887</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28" s="3"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F29" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>0.06</v>
       </c>
-      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M29" s="3"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H30" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I30" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F31" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="38"/>
       <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I32" s="38"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F33" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H33" s="31" t="s">
-        <v>892</v>
-      </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="31" t="s">
+        <v>888</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O33" s="3"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F34" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>0.04</v>
       </c>
-      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M34" s="3"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H35" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I35" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="31"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F36" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J36" s="31"/>
+    </row>
+    <row r="37" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E37" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I37" s="38"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F38" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H38" s="31" t="s">
-        <v>893</v>
-      </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="31" t="s">
+        <v>889</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O38" s="3"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F39" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H39" s="4">
+      <c r="I39" s="4">
         <v>0.03</v>
       </c>
-      <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M39" s="3"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H40" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I40" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F41" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J41" s="31"/>
+    </row>
+    <row r="42" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E42" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="38"/>
       <c r="H42" s="38"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I42" s="38"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F43" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H43" s="31" t="s">
-        <v>894</v>
-      </c>
-      <c r="I43" s="3"/>
+      <c r="I43" s="31" t="s">
+        <v>890</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O43" s="3"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F44" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M44" s="3"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H45" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="31"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I45" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="31"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F46" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H46" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I46" s="31"/>
-    </row>
-    <row r="47" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J46" s="31"/>
+    </row>
+    <row r="47" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E47" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="38"/>
       <c r="H47" s="38"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F48" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H48" s="31" t="s">
-        <v>895</v>
-      </c>
-      <c r="I48" s="3"/>
+      <c r="I48" s="31" t="s">
+        <v>891</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O48" s="3"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F49" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="F49" s="30"/>
+      <c r="G49" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>0.02</v>
       </c>
-      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M49" s="3"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H50" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" s="31"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I50" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="31"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F51" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="G51" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H51" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I51" s="31"/>
-    </row>
-    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J51" s="31"/>
+    </row>
+    <row r="52" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E52" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="38"/>
       <c r="H52" s="38"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F53" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="G53" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H53" s="31" t="s">
-        <v>896</v>
-      </c>
-      <c r="I53" s="3"/>
+      <c r="I53" s="31" t="s">
+        <v>892</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O53" s="3"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F54" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="G54" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H54" s="4">
+      <c r="I54" s="4">
         <v>0.02</v>
       </c>
-      <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M54" s="3"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H55" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="31"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I55" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="31"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F56" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="G56" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H56" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J56" s="31"/>
+    </row>
+    <row r="57" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E57" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="38"/>
       <c r="H57" s="38"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F58" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="G58" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H58" s="31" t="s">
-        <v>897</v>
-      </c>
-      <c r="I58" s="3"/>
+      <c r="I58" s="31" t="s">
+        <v>893</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O58" s="3"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B59" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F59" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="G59" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H59" s="4">
+      <c r="I59" s="4">
         <v>0.02</v>
       </c>
-      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M59" s="3"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B60" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H60" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I60" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="31"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B61" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F61" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="G61" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J61" s="31"/>
+    </row>
+    <row r="62" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E62" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G62" s="38"/>
       <c r="H62" s="38"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I62" s="38"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B63" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F63" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="G63" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H63" s="31" t="s">
-        <v>898</v>
-      </c>
-      <c r="I63" s="3"/>
+      <c r="I63" s="31" t="s">
+        <v>894</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O63" s="3"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="2"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B64" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F64" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="G64" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H64" s="4">
+      <c r="I64" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M64" s="3"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B65" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="H65" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" s="31"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="I65" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="31"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B66" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>823</v>
-      </c>
-      <c r="F66" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="G66" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H66" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="I66" s="31"/>
-    </row>
-    <row r="67" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="J66" s="31"/>
+    </row>
+    <row r="67" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E67" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G67" s="38"/>
       <c r="H67" s="38"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I67" s="38"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B68" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>630</v>
-      </c>
-      <c r="H68" s="31">
+        <v>729</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="I68" s="31">
         <v>999998</v>
       </c>
-      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O68" s="3"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B69" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>733</v>
-      </c>
-      <c r="F69" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="G69" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G69" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="H69" s="4">
+      <c r="H69" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="I69" s="4">
         <v>10</v>
       </c>
-      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M69" s="3"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B70" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E70" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="I70" s="4">
+        <v>10</v>
+      </c>
+      <c r="J70" s="31"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B71" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="F70" s="31" t="s">
+      <c r="E71" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="G71" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G70" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="H70" s="4">
-        <v>10</v>
-      </c>
-      <c r="I70" s="31"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B71" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>738</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>737</v>
-      </c>
-      <c r="F71" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H71" s="4">
-        <v>2</v>
-      </c>
-      <c r="I71" s="31"/>
-    </row>
-    <row r="72" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="4">
+        <v>2</v>
+      </c>
+      <c r="J71" s="31"/>
+    </row>
+    <row r="72" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E72" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G72" s="38"/>
       <c r="H72" s="38"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I72" s="38"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B73" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="46" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E73" s="46" t="s">
-        <v>775</v>
-      </c>
-      <c r="F73" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="G73" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H73" s="4">
+      <c r="I73" s="4">
         <v>8</v>
       </c>
-      <c r="I73" s="31"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J73" s="31"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B74" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="46" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E74" s="46" t="s">
-        <v>776</v>
-      </c>
-      <c r="F74" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="G74" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H74" s="4">
+      <c r="I74" s="4">
         <v>17</v>
       </c>
-      <c r="I74" s="31"/>
-    </row>
-    <row r="75" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="31"/>
+    </row>
+    <row r="75" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E75" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="38"/>
       <c r="H75" s="38"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I75" s="38"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B76" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="F76" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="G76" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H76" s="31">
+      <c r="I76" s="31">
         <v>1</v>
       </c>
-      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="3"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E77" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G77" s="38"/>
       <c r="H77" s="38"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I77" s="38"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B78" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>755</v>
-      </c>
-      <c r="F78" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="G78" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H78" s="31">
+      <c r="I78" s="31">
         <v>1</v>
       </c>
-      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="3"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E79" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G79" s="38"/>
       <c r="H79" s="38"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I79" s="38"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B80" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>767</v>
-      </c>
-      <c r="F80" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="G80" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H80" s="31">
+      <c r="I80" s="31">
         <v>1</v>
       </c>
-      <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="3"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="b">
         <v>1</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E81" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G81" s="48"/>
+      <c r="F81" s="37"/>
       <c r="H81" s="48"/>
-    </row>
-    <row r="82" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="48"/>
+    </row>
+    <row r="82" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E82" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G82" s="38"/>
       <c r="H82" s="38"/>
-    </row>
-    <row r="83" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="38"/>
+    </row>
+    <row r="83" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E83" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="38"/>
       <c r="H83" s="38"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I83" s="38"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B84" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>770</v>
-      </c>
-      <c r="F84" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="G84" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H84" s="31">
+      <c r="I84" s="31">
         <v>1</v>
       </c>
-      <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="3"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="2"/>
+    </row>
+    <row r="85" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E85" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G85" s="38"/>
       <c r="H85" s="38"/>
-    </row>
-    <row r="86" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="38"/>
+    </row>
+    <row r="86" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C86" s="37" t="s">
         <v>74</v>
@@ -9217,10 +9300,10 @@
       <c r="E86" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G86" s="38"/>
       <c r="H86" s="38"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I86" s="38"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B87" s="31" t="s">
         <v>21</v>
       </c>
@@ -9230,886 +9313,887 @@
       <c r="E87" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="G87" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="G87" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="H87" s="31">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3"/>
+      <c r="H87" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="I87" s="31">
+        <v>0</v>
+      </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="3"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="2"/>
+    </row>
+    <row r="88" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="b">
         <v>1</v>
       </c>
       <c r="B88" s="47" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E88" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G88" s="48"/>
+      <c r="F88" s="37"/>
       <c r="H88" s="48"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I88" s="48"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B89" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="F89" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="G89" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H89" s="31">
+      <c r="I89" s="31">
         <v>1</v>
       </c>
-      <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O89" s="3"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="2"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B90" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>863</v>
-      </c>
-      <c r="F90" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="G90" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H90" s="31">
+      <c r="I90" s="31">
         <v>1</v>
       </c>
-      <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O90" s="3"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="2"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>865</v>
-      </c>
-      <c r="F91" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="G91" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H91" s="31">
+      <c r="I91" s="31">
         <v>1</v>
       </c>
-      <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O91" s="3"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="2"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B92" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>867</v>
-      </c>
-      <c r="F92" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="G92" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H92" s="31">
+      <c r="I92" s="31">
         <v>1</v>
       </c>
-      <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="3"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="2"/>
+    </row>
+    <row r="93" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E93" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G93" s="38"/>
       <c r="H93" s="38"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I93" s="38"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B94" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="F94" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="G94" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H94" s="31">
+      <c r="I94" s="31">
         <v>1</v>
       </c>
-      <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="2"/>
-    </row>
-    <row r="95" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="3"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="2"/>
+    </row>
+    <row r="95" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E95" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="38"/>
       <c r="H95" s="38"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I95" s="38"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B96" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="F96" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="G96" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H96" s="31">
+      <c r="I96" s="31">
         <v>1</v>
       </c>
-      <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="2"/>
-    </row>
-    <row r="97" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O96" s="3"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="2"/>
+    </row>
+    <row r="97" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E97" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G97" s="38"/>
       <c r="H97" s="38"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I97" s="38"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B98" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="F98" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="G98" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H98" s="31">
+      <c r="I98" s="31">
         <v>1</v>
       </c>
-      <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="2"/>
-    </row>
-    <row r="99" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="3"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="2"/>
+    </row>
+    <row r="99" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D99" s="37" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E99" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G99" s="38"/>
       <c r="H99" s="38"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I99" s="38"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B100" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="F100" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="G100" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H100" s="31">
+      <c r="I100" s="31">
         <v>1</v>
       </c>
-      <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="2"/>
-    </row>
-    <row r="101" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="3"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="2"/>
+    </row>
+    <row r="101" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D101" s="37" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E101" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G101" s="38"/>
       <c r="H101" s="38"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I101" s="38"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B102" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="F102" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="G102" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H102" s="31">
+      <c r="I102" s="31">
         <v>1</v>
       </c>
-      <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="2"/>
-    </row>
-    <row r="103" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O102" s="3"/>
+      <c r="Q102" s="39"/>
+      <c r="R102" s="2"/>
+    </row>
+    <row r="103" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G103" s="38"/>
       <c r="H103" s="38"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I103" s="38"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B104" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>809</v>
-      </c>
-      <c r="F104" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="G104" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H104" s="31">
+      <c r="I104" s="31">
         <v>1</v>
       </c>
-      <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
-      <c r="P104" s="39"/>
-      <c r="Q104" s="2"/>
-    </row>
-    <row r="105" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O104" s="3"/>
+      <c r="Q104" s="39"/>
+      <c r="R104" s="2"/>
+    </row>
+    <row r="105" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D105" s="37" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E105" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="38"/>
       <c r="H105" s="38"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I105" s="38"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B106" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>802</v>
-      </c>
-      <c r="F106" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="G106" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H106" s="31">
+      <c r="I106" s="31">
         <v>1</v>
       </c>
-      <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
-      <c r="P106" s="39"/>
-      <c r="Q106" s="2"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O106" s="3"/>
+      <c r="Q106" s="39"/>
+      <c r="R106" s="2"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B107" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>803</v>
-      </c>
-      <c r="F107" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="G107" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H107" s="31">
+      <c r="I107" s="31">
         <v>1</v>
       </c>
-      <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
-      <c r="P107" s="39"/>
-      <c r="Q107" s="2"/>
-    </row>
-    <row r="108" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="3"/>
+      <c r="Q107" s="39"/>
+      <c r="R107" s="2"/>
+    </row>
+    <row r="108" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E108" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="38"/>
       <c r="H108" s="38"/>
-    </row>
-    <row r="109" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I108" s="38"/>
+    </row>
+    <row r="109" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E109" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G109" s="38"/>
       <c r="H109" s="38"/>
-    </row>
-    <row r="110" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="38"/>
+    </row>
+    <row r="110" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B110" s="37" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E110" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G110" s="38"/>
       <c r="H110" s="38"/>
-    </row>
-    <row r="111" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="38"/>
+    </row>
+    <row r="111" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E111" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G111" s="38"/>
       <c r="H111" s="38"/>
-    </row>
-    <row r="112" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="38"/>
+    </row>
+    <row r="112" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D112" s="37" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E112" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G112" s="38"/>
       <c r="H112" s="38"/>
-    </row>
-    <row r="113" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="38"/>
+    </row>
+    <row r="113" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D113" s="37" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E113" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G113" s="38"/>
       <c r="H113" s="38"/>
-    </row>
-    <row r="114" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="38"/>
+    </row>
+    <row r="114" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D114" s="37" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E114" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G114" s="38"/>
       <c r="H114" s="38"/>
-    </row>
-    <row r="115" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="38"/>
+    </row>
+    <row r="115" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E115" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G115" s="38"/>
       <c r="H115" s="38"/>
-    </row>
-    <row r="116" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="38"/>
+    </row>
+    <row r="116" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D116" s="37" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E116" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G116" s="38"/>
       <c r="H116" s="38"/>
-    </row>
-    <row r="117" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I116" s="38"/>
+    </row>
+    <row r="117" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D117" s="37" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E117" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="G117" s="38"/>
       <c r="H117" s="38"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H118" s="31"/>
+      <c r="I117" s="38"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I118" s="31"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H119" s="31"/>
+      <c r="J118" s="31"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I119" s="31"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H120" s="31"/>
+      <c r="J119" s="31"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I120" s="31"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H121" s="31"/>
+      <c r="J120" s="31"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I121" s="31"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H122" s="31"/>
+      <c r="J121" s="31"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I122" s="31"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H123" s="31"/>
+      <c r="J122" s="31"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I123" s="31"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H124" s="31"/>
+      <c r="J123" s="31"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I124" s="31"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H125" s="31"/>
+      <c r="J124" s="31"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I125" s="31"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H126" s="31"/>
+      <c r="J125" s="31"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I126" s="31"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H127" s="31"/>
+      <c r="J126" s="31"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I127" s="31"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H128" s="31"/>
+      <c r="J127" s="31"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I128" s="31"/>
-    </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H129" s="31"/>
+      <c r="J128" s="31"/>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I129" s="31"/>
-    </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="31"/>
+      <c r="J129" s="31"/>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I130" s="31"/>
-    </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H131" s="31"/>
+      <c r="J130" s="31"/>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I131" s="31"/>
-    </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H132" s="31"/>
+      <c r="J131" s="31"/>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132" s="31"/>
-    </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H133" s="31"/>
+      <c r="J132" s="31"/>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133" s="31"/>
-    </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H134" s="31"/>
+      <c r="J133" s="31"/>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134" s="31"/>
-    </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H135" s="31"/>
+      <c r="J134" s="31"/>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135" s="31"/>
-    </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H136" s="31"/>
+      <c r="J135" s="31"/>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136" s="31"/>
-    </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H137" s="31"/>
+      <c r="J136" s="31"/>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137" s="31"/>
-    </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H138" s="31"/>
+      <c r="J137" s="31"/>
+    </row>
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138" s="31"/>
-    </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H139" s="31"/>
+      <c r="J138" s="31"/>
+    </row>
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139" s="31"/>
-    </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H140" s="31"/>
+      <c r="J139" s="31"/>
+    </row>
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140" s="31"/>
-    </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H141" s="31"/>
+      <c r="J140" s="31"/>
+    </row>
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141" s="31"/>
-    </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H142" s="31"/>
+      <c r="J141" s="31"/>
+    </row>
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142" s="31"/>
-    </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H143" s="31"/>
+      <c r="J142" s="31"/>
+    </row>
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143" s="31"/>
-    </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H144" s="31"/>
+      <c r="J143" s="31"/>
+    </row>
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144" s="31"/>
-    </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H145" s="31"/>
+      <c r="J144" s="31"/>
+    </row>
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I145" s="31"/>
-    </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H146" s="31"/>
+      <c r="J145" s="31"/>
+    </row>
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I146" s="31"/>
-    </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H147" s="31"/>
+      <c r="J146" s="31"/>
+    </row>
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I147" s="31"/>
-    </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H148" s="31"/>
+      <c r="J147" s="31"/>
+    </row>
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I148" s="31"/>
-    </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H149" s="31"/>
+      <c r="J148" s="31"/>
+    </row>
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I149" s="31"/>
-    </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H150" s="31"/>
+      <c r="J149" s="31"/>
+    </row>
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I150" s="31"/>
-    </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H151" s="31"/>
+      <c r="J150" s="31"/>
+    </row>
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I151" s="31"/>
-    </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H152" s="31"/>
+      <c r="J151" s="31"/>
+    </row>
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I152" s="31"/>
-    </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H153" s="31"/>
+      <c r="J152" s="31"/>
+    </row>
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I153" s="31"/>
-    </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H154" s="31"/>
+      <c r="J153" s="31"/>
+    </row>
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I154" s="31"/>
-    </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H155" s="31"/>
+      <c r="J154" s="31"/>
+    </row>
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I155" s="31"/>
-    </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H156" s="31"/>
+      <c r="J155" s="31"/>
+    </row>
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I156" s="31"/>
-    </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H157" s="31"/>
+      <c r="J156" s="31"/>
+    </row>
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I157" s="31"/>
-    </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H158" s="31"/>
+      <c r="J157" s="31"/>
+    </row>
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I158" s="31"/>
-    </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H159" s="31"/>
+      <c r="J158" s="31"/>
+    </row>
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I159" s="31"/>
-    </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H160" s="31"/>
+      <c r="J159" s="31"/>
+    </row>
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I160" s="31"/>
-    </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H161" s="31"/>
+      <c r="J160" s="31"/>
+    </row>
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I161" s="31"/>
-    </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H162" s="31"/>
+      <c r="J161" s="31"/>
+    </row>
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I162" s="31"/>
-    </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H163" s="31"/>
+      <c r="J162" s="31"/>
+    </row>
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I163" s="31"/>
-    </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H164" s="31"/>
+      <c r="J163" s="31"/>
+    </row>
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I164" s="31"/>
-    </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H165" s="31"/>
+      <c r="J164" s="31"/>
+    </row>
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I165" s="31"/>
-    </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H166" s="31"/>
+      <c r="J165" s="31"/>
+    </row>
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I166" s="31"/>
-    </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H167" s="31"/>
+      <c r="J166" s="31"/>
+    </row>
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I167" s="31"/>
-    </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H168" s="31"/>
+      <c r="J167" s="31"/>
+    </row>
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I168" s="31"/>
-    </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H169" s="31"/>
+      <c r="J168" s="31"/>
+    </row>
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I169" s="31"/>
-    </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H170" s="31"/>
+      <c r="J169" s="31"/>
+    </row>
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I170" s="31"/>
-    </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H171" s="31"/>
+      <c r="J170" s="31"/>
+    </row>
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I171" s="31"/>
+      <c r="J171" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z100"/>
+  <autoFilter ref="A2:AA100"/>
   <mergeCells count="1">
-    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -10123,94 +10207,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C25"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
-      <c r="H1" s="41"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="41"/>
-      <c r="L1" s="40"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L1" s="41"/>
+      <c r="M1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>636</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="51" t="s">
+        <v>898</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>635</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="G2" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>622</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="I2" s="43" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="J2" s="43" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="K2" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="L2" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="L2" s="43"/>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="B3" s="51" t="s">
+        <v>899</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>640</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>630</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44" t="s">
         <v>628</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>641</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>461</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>461</v>
@@ -10219,714 +10309,755 @@
         <v>461</v>
       </c>
       <c r="I3" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="J3" s="44" t="s">
         <v>619</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="K3" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="K3" s="44" t="s">
-        <v>630</v>
-      </c>
       <c r="L3" s="44" t="s">
+        <v>629</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>643</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>637</v>
+      <c r="B4" s="30" t="s">
+        <v>900</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D4" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F4" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G4" s="40" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
-        <v>644</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>638</v>
+        <v>643</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>901</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D5" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G5" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
-        <v>645</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>640</v>
+        <v>644</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>902</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D6" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="F6" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G6" s="40" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>639</v>
+        <v>645</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>903</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D7" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F7" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G7" s="40" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
-        <v>689</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40" t="s">
-        <v>690</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="40" t="s">
+        <v>688</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="F8" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G8" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>691</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40" t="s">
-        <v>692</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="F9" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
-        <v>693</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40" t="s">
-        <v>694</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="40" t="s">
+        <v>692</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="F10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G10" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>695</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40" t="s">
-        <v>696</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="40" t="s">
+        <v>694</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="F11" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G11" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>697</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40" t="s">
-        <v>698</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="E12" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="F12" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G12" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
-        <v>699</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40" t="s">
-        <v>700</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="40" t="s">
+        <v>698</v>
+      </c>
+      <c r="E13" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="F13" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G13" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
-        <v>701</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40" t="s">
-        <v>702</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
+        <v>700</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="F14" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G14" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>703</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40" t="s">
-        <v>704</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G15" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>705</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40" t="s">
-        <v>706</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="40" t="s">
+        <v>704</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="F16" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G16" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>707</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40" t="s">
-        <v>708</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="40" t="s">
+        <v>706</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="F17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G17" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="40"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
-        <v>709</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40" t="s">
-        <v>710</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="40" t="s">
+        <v>708</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="F18" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G18" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="40"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>711</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40" t="s">
-        <v>712</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="F19" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G19" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="40"/>
+      <c r="I19" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
-        <v>713</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40" t="s">
-        <v>714</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="40" t="s">
+        <v>712</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="F20" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G20" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>715</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40" t="s">
-        <v>716</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="E21" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="F21" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G21" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="40"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
-        <v>683</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40" t="s">
-        <v>717</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="40" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="E22" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G22" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H22" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="40"/>
+      <c r="I22" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="40"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40" t="s">
-        <v>718</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="40" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="E23" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G23" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="40"/>
+      <c r="I23" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
       <c r="L23" s="40"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="40"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
-        <v>686</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40" t="s">
-        <v>719</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="40" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="E24" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="40" t="b">
-        <v>0</v>
-      </c>
       <c r="G24" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="40"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
-        <v>687</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40" t="s">
-        <v>720</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="C25" s="40"/>
       <c r="D25" s="40" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="E25" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F25" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G25" s="40" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="40"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="E26" s="40" t="s">
         <v>654</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40" t="s">
-        <v>672</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>655</v>
-      </c>
-      <c r="E26" s="40" t="s">
+      <c r="F26" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F26" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G26" s="40" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J26" s="40"/>
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="40"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="E27" s="40" t="s">
         <v>656</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>657</v>
-      </c>
-      <c r="E27" s="40" t="s">
+      <c r="F27" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F27" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G27" s="40" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="40" t="b">
+        <v>0</v>
+      </c>
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="40"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
-        <v>679</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40" t="s">
-        <v>674</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>677</v>
+      </c>
+      <c r="C28" s="40"/>
       <c r="D28" s="40" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E28" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F28" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G28" s="40" t="b">
         <v>1</v>
@@ -10934,29 +11065,32 @@
       <c r="H28" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="40">
-        <v>0</v>
-      </c>
-      <c r="J28" s="40"/>
+      <c r="I28" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="40">
+        <v>0</v>
+      </c>
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="40"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
-        <v>680</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40" t="s">
-        <v>676</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>678</v>
+      </c>
+      <c r="C29" s="40"/>
       <c r="D29" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E29" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="F29" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F29" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G29" s="40" t="b">
         <v>1</v>
@@ -10964,29 +11098,32 @@
       <c r="H29" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="40">
-        <v>0</v>
-      </c>
-      <c r="J29" s="40"/>
+      <c r="I29" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="40">
+        <v>0</v>
+      </c>
       <c r="K29" s="40"/>
       <c r="L29" s="40"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="40"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
-        <v>681</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40" t="s">
-        <v>677</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="C30" s="40"/>
       <c r="D30" s="40" t="s">
         <v>675</v>
       </c>
       <c r="E30" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="F30" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F30" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G30" s="40" t="b">
         <v>1</v>
@@ -10994,29 +11131,32 @@
       <c r="H30" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="40">
-        <v>0</v>
-      </c>
-      <c r="J30" s="40"/>
+      <c r="I30" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="40">
+        <v>0</v>
+      </c>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="40"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>682</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40" t="s">
-        <v>678</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="C31" s="40"/>
       <c r="D31" s="40" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E31" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="F31" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="F31" s="40" t="b">
-        <v>1</v>
       </c>
       <c r="G31" s="40" t="b">
         <v>1</v>
@@ -11024,16 +11164,19 @@
       <c r="H31" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="40">
-        <v>0</v>
-      </c>
-      <c r="J31" s="40"/>
+      <c r="I31" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="40">
+        <v>0</v>
+      </c>
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="40"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -11044,10 +11187,11 @@
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
       <c r="L32" s="40"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="40"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -11058,36 +11202,216 @@
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
       <c r="L33" s="40"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="40"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="30"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="30"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="30"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="30"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="30"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="30"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="30"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="30"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="30"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="30"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="30"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="30"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="30"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="30"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="30"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="30"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="30"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="30"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="30"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="30"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="30"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="30"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="30"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="30"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="30"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="30"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="30"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="30"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="30"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="30"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="30"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="30"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="30"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="30"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="30"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="30"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="30"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="30"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="30"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="30"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="30"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="30"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="30"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="30"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="30"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="30"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="30"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="30"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="30"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="30"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="30"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="30"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11108,16 +11432,16 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -11275,7 +11599,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11298,7 +11622,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11321,7 +11645,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11344,7 +11668,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11363,7 +11687,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11384,7 +11708,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11407,7 +11731,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11430,7 +11754,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11453,7 +11777,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11476,7 +11800,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11499,7 +11823,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11522,7 +11846,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11545,7 +11869,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11568,7 +11892,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11587,7 +11911,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11610,7 +11934,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11633,7 +11957,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11656,7 +11980,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11679,7 +12003,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11702,7 +12026,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11725,7 +12049,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11748,7 +12072,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11771,7 +12095,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11794,7 +12118,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11813,7 +12137,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11834,7 +12158,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11857,7 +12181,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11880,7 +12204,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11903,7 +12227,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11926,7 +12250,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11949,7 +12273,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11972,7 +12296,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11995,7 +12319,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12018,7 +12342,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12037,7 +12361,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12058,7 +12382,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12081,7 +12405,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12104,7 +12428,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12127,7 +12451,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12150,7 +12474,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12173,7 +12497,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12196,7 +12520,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12219,7 +12543,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12242,7 +12566,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12261,7 +12585,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12282,7 +12606,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12305,7 +12629,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12328,7 +12652,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12351,7 +12675,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12374,7 +12698,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12397,7 +12721,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12420,7 +12744,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12443,7 +12767,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12466,7 +12790,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12485,7 +12809,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12506,7 +12830,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12531,7 +12855,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12554,7 +12878,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12577,7 +12901,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12600,7 +12924,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12623,7 +12947,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12646,7 +12970,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12669,7 +12993,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12692,7 +13016,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12715,7 +13039,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12734,7 +13058,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12755,7 +13079,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12778,7 +13102,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12803,7 +13127,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12826,7 +13150,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12849,7 +13173,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12872,7 +13196,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12895,7 +13219,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12918,7 +13242,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12941,7 +13265,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12964,7 +13288,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12987,7 +13311,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13010,7 +13334,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13033,7 +13357,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13052,7 +13376,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13075,7 +13399,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13098,7 +13422,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13121,7 +13445,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13144,7 +13468,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13167,7 +13491,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13190,7 +13514,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13213,7 +13537,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13236,7 +13560,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13259,7 +13583,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13282,7 +13606,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13301,7 +13625,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13326,7 +13650,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13345,7 +13669,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13366,7 +13690,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13391,7 +13715,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13410,7 +13734,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13433,7 +13757,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13458,7 +13782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13481,7 +13805,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13502,7 +13826,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13521,7 +13845,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13546,7 +13870,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13569,7 +13893,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13592,7 +13916,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13615,7 +13939,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13638,7 +13962,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13661,7 +13985,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13684,7 +14008,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13703,7 +14027,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13726,7 +14050,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13749,7 +14073,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13772,7 +14096,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13791,7 +14115,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13814,7 +14138,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13837,7 +14161,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13860,7 +14184,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13883,7 +14207,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13906,7 +14230,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13929,7 +14253,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13948,7 +14272,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13973,7 +14297,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13996,7 +14320,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14019,7 +14343,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14042,7 +14366,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14065,7 +14389,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14088,7 +14412,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14111,7 +14435,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14134,7 +14458,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14157,7 +14481,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14176,7 +14500,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14201,7 +14525,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14222,7 +14546,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14245,7 +14569,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14268,7 +14592,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14291,7 +14615,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14314,7 +14638,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14337,7 +14661,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14360,7 +14684,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14383,7 +14707,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14406,7 +14730,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14429,7 +14753,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14452,7 +14776,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14475,7 +14799,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14498,7 +14822,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14517,7 +14841,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14540,7 +14864,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14559,7 +14883,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14906,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14605,7 +14929,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14624,7 +14948,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14649,7 +14973,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14672,7 +14996,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14695,7 +15019,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14718,7 +15042,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14741,7 +15065,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14764,7 +15088,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14787,7 +15111,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14810,7 +15134,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14833,7 +15157,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14856,7 +15180,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14875,7 +15199,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14900,7 +15224,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14923,7 +15247,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14946,7 +15270,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14969,7 +15293,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14992,7 +15316,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15015,7 +15339,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15038,7 +15362,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15061,7 +15385,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15084,7 +15408,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15107,7 +15431,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15126,7 +15450,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15149,7 +15473,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15172,7 +15496,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15195,7 +15519,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15218,7 +15542,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15237,7 +15561,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15260,7 +15584,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15283,7 +15607,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15306,7 +15630,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15329,7 +15653,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15348,7 +15672,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15369,7 +15693,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15392,7 +15716,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15411,7 +15735,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15434,7 +15758,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15459,7 +15783,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15480,7 +15804,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15505,7 +15829,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15530,7 +15854,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15549,7 +15873,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15574,7 +15898,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15597,7 +15921,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15620,7 +15944,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15643,7 +15967,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15666,7 +15990,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15689,7 +16013,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15712,7 +16036,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15735,7 +16059,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15758,7 +16082,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15777,7 +16101,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15802,7 +16126,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15825,7 +16149,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15848,7 +16172,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15871,7 +16195,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15894,7 +16218,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15917,7 +16241,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15940,7 +16264,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15963,7 +16287,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15986,7 +16310,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16005,7 +16329,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16026,7 +16350,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16049,7 +16373,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16072,7 +16396,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16095,7 +16419,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16118,7 +16442,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16141,7 +16465,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16164,7 +16488,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16187,7 +16511,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16210,7 +16534,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16233,7 +16557,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16256,7 +16580,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16279,7 +16603,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16302,7 +16626,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16325,7 +16649,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16348,7 +16672,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16371,7 +16695,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16390,7 +16714,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16411,7 +16735,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16434,7 +16758,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16457,7 +16781,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16480,7 +16804,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16503,7 +16827,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16526,7 +16850,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16549,7 +16873,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16572,7 +16896,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16595,7 +16919,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16618,7 +16942,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16641,7 +16965,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16664,7 +16988,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16687,7 +17011,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16710,7 +17034,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16733,7 +17057,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16756,7 +17080,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16775,7 +17099,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16800,7 +17124,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16823,7 +17147,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16846,7 +17170,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16869,7 +17193,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16892,7 +17216,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16911,7 +17235,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16936,7 +17260,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16959,7 +17283,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16978,7 +17302,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16997,7 +17321,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17016,7 +17340,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17037,7 +17361,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17060,7 +17384,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17083,7 +17407,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17106,7 +17430,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17129,7 +17453,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17152,7 +17476,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17175,7 +17499,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17198,7 +17522,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17221,7 +17545,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17244,7 +17568,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17267,7 +17591,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17286,7 +17610,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17309,7 +17633,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17328,7 +17652,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17353,7 +17677,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17376,7 +17700,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17399,7 +17723,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17422,7 +17746,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17445,7 +17769,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17468,7 +17792,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17491,7 +17815,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17514,7 +17838,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17537,7 +17861,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17560,7 +17884,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17583,7 +17907,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17602,7 +17926,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17625,7 +17949,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17644,7 +17968,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17665,7 +17989,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17684,7 +18008,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17705,7 +18029,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17724,7 +18048,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17745,7 +18069,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17764,7 +18088,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17787,7 +18111,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17806,7 +18130,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17831,7 +18155,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17854,7 +18178,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17877,7 +18201,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17900,7 +18224,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17923,7 +18247,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17946,7 +18270,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17969,7 +18293,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17992,7 +18316,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18015,7 +18339,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18034,7 +18358,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18057,7 +18381,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18080,7 +18404,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18103,7 +18427,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18126,7 +18450,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18145,7 +18469,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18168,7 +18492,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18191,7 +18515,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18216,7 +18540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18235,7 +18559,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18260,7 +18584,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18283,7 +18607,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18302,7 +18626,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18323,7 +18647,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18344,7 +18668,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18367,7 +18691,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18386,7 +18710,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18405,7 +18729,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18430,7 +18754,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18455,7 +18779,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18469,7 +18793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18492,7 +18816,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18512,7 +18836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18532,7 +18856,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18552,7 +18876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18569,7 +18893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18592,7 +18916,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18615,7 +18939,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18629,7 +18953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18652,7 +18976,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18675,7 +18999,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18695,7 +19019,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18715,7 +19039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18732,7 +19056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18758,7 +19082,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18787,7 +19111,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18826,7 +19150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18840,7 +19164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18860,7 +19184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18874,7 +19198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18894,7 +19218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18914,7 +19238,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18934,7 +19258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18954,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18974,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18994,7 +19318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19014,7 +19338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19034,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19054,7 +19378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19068,7 +19392,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19088,7 +19412,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19108,7 +19432,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19124,7 +19448,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19150,7 +19474,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19191,7 +19515,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19205,7 +19529,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19225,7 +19549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19239,7 +19563,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19278,17 +19602,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19299,7 +19623,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19313,7 +19637,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19327,7 +19651,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19341,7 +19665,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19355,7 +19679,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19369,7 +19693,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19383,7 +19707,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19397,7 +19721,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19411,7 +19735,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19425,7 +19749,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19439,7 +19763,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19450,8 +19774,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19477,7 +19801,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19518,7 +19842,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19559,7 +19883,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19591,7 +19915,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19623,7 +19947,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19652,7 +19976,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19684,7 +20008,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19704,9 +20028,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>
@@ -19727,7 +20051,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19738,7 +20062,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19746,7 +20070,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/m0_office.xlsx
+++ b/projects/m0_office.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="2880" windowWidth="21204" windowHeight="2892" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="2880" windowWidth="21204" windowHeight="2892" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6979,7 +6979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -10209,9 +10209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10350,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -10416,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
@@ -10449,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
@@ -10967,7 +10967,7 @@
         <v>64</v>
       </c>
       <c r="G25" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="40" t="b">
         <v>1</v>
@@ -10998,7 +10998,7 @@
         <v>64</v>
       </c>
       <c r="G26" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="40" t="b">
         <v>1</v>
@@ -11029,7 +11029,7 @@
         <v>64</v>
       </c>
       <c r="G27" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="40" t="b">
         <v>1</v>
@@ -11060,13 +11060,13 @@
         <v>64</v>
       </c>
       <c r="G28" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="40" t="b">
         <v>1</v>
       </c>
       <c r="I28" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="40">
         <v>0</v>
@@ -11093,13 +11093,13 @@
         <v>64</v>
       </c>
       <c r="G29" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="40" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="40">
         <v>0</v>
@@ -11126,13 +11126,13 @@
         <v>64</v>
       </c>
       <c r="G30" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="40" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="40">
         <v>0</v>
@@ -11159,13 +11159,13 @@
         <v>64</v>
       </c>
       <c r="G31" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="40" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="40">
         <v>0</v>

--- a/projects/m0_office.xlsx
+++ b/projects/m0_office.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="2880" windowWidth="21204" windowHeight="2892" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="-12" yWindow="2880" windowWidth="21204" windowHeight="2892" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -7402,9 +7402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z171"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="83" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" s="37" t="s">
         <v>765</v>
@@ -10209,7 +10209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
